--- a/fuentes/contenidos/grado08/guion05/SolicitudGrafica_CN_08_05.xlsx
+++ b/fuentes/contenidos/grado08/guion05/SolicitudGrafica_CN_08_05.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\RecursosGenerales\guiasYformatos\solicitudes\formatos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19203" windowHeight="8949" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="172">
   <si>
     <t>Fecha:</t>
   </si>
@@ -465,9 +460,6 @@
     <t>Área:</t>
   </si>
   <si>
-    <t>CN_08_01_REC10</t>
-  </si>
-  <si>
     <t>CN_08_02_REC10_IMG01</t>
   </si>
   <si>
@@ -511,6 +503,87 @@
   </si>
   <si>
     <t>Recurso número 10 (para el Cuaderno de Estudio no se escribe nada)</t>
+  </si>
+  <si>
+    <t>La reproducción humana y la sexualidad</t>
+  </si>
+  <si>
+    <t>Miguel Aljure</t>
+  </si>
+  <si>
+    <t>Cuaderno de Estudio</t>
+  </si>
+  <si>
+    <t>3ESO/ Biología y geología/ La reproducción y la sexualidad/ Los aparatos reproductores/ El aparato reproductor masculino/ primera imagen</t>
+  </si>
+  <si>
+    <t>Fotografía</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>Aparato reproductor femenino</t>
+  </si>
+  <si>
+    <t>3ESO/ Biología y geología/ La reproducción y la sexualidad/ Los aparatos reproductores/ El aparato reproductor femenino/ imagen 1</t>
+  </si>
+  <si>
+    <t>Aparato reproductor masculino</t>
+  </si>
+  <si>
+    <t>CN_08_05_CO</t>
+  </si>
+  <si>
+    <t>3ESO/ Biología y geología/ La reproducción y la sexualidad/ Los aparatos reproductores/ El aparato reproductor masculino/ imagen 2</t>
+  </si>
+  <si>
+    <t>Un espermatozoide</t>
+  </si>
+  <si>
+    <t>3ESO/ Biología y geología/ La reproducción y la sexualidad/ Los aparatos reproductores/ El aparato reproductor femenino/ imagen 2</t>
+  </si>
+  <si>
+    <t>Un oocito (una célula redondeada)</t>
+  </si>
+  <si>
+    <t>Agregar a la imagen, el conducto eyaculador y la glándula bulbouretral.</t>
+  </si>
+  <si>
+    <t>Cambiar en la imagen la palabra radiata por radiada.</t>
+  </si>
+  <si>
+    <t>Ver observaciones</t>
+  </si>
+  <si>
+    <t>Ilustrar el siguiente esquema</t>
+  </si>
+  <si>
+    <t>Esquema con la regulación hormonal del ciclo menstrual</t>
+  </si>
+  <si>
+    <t>Pareja y bebé humanos</t>
+  </si>
+  <si>
+    <t>3ESO/ Biología y geología/ La reproducción y la sexualidad/ El embarazo</t>
+  </si>
+  <si>
+    <t>El embarazo</t>
+  </si>
+  <si>
+    <t>Inseminación artificial</t>
+  </si>
+  <si>
+    <t>Una inyección sobre una célula</t>
+  </si>
+  <si>
+    <t>3ESO/ Biología y geología/ La reproducción y la sexualidad/ La sexualidad/ Imagen 1</t>
+  </si>
+  <si>
+    <t>Preservativo y pildora anticonceptiva</t>
   </si>
 </sst>
 </file>
@@ -520,7 +593,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -661,6 +734,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1157,7 +1242,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1209,8 +1294,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1221,9 +1307,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,9 +1361,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1292,12 +1372,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1419,6 +1493,35 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1504,11 +1607,8 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="52">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1534,6 +1634,7 @@
     <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1623,7 +1724,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1640,20 +1741,375 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3438525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1925638</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="319 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16471901" y="2146301"/>
+          <a:ext cx="3311524" cy="1751012"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="3889612" cy="2108579"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="23 Imagen"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="17632" t="25875" r="18892" b="26848"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="334370"/>
+            <a:ext cx="3889612" cy="1774209"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+              <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="25" name="316 Grupo"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1876567" y="0"/>
+            <a:ext cx="1722163" cy="1487172"/>
+            <a:chOff x="1739099" y="-116006"/>
+            <a:chExt cx="1722163" cy="1487172"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="28" name="314 Conector recto"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="29" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="1739099" y="284733"/>
+              <a:ext cx="1288069" cy="1086433"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Cuadro de texto 2"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2593075" y="-116006"/>
+              <a:ext cx="868187" cy="400739"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES_tradnl" sz="800">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria"/>
+                  <a:ea typeface="Cambria"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:rPr>
+                <a:t>Glándula</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1200">
+                <a:effectLst/>
+                <a:latin typeface="Cambria"/>
+                <a:ea typeface="Cambria"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES_tradnl" sz="800">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria"/>
+                  <a:ea typeface="Cambria"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:rPr>
+                <a:t>bulbouretral</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1200">
+                <a:effectLst/>
+                <a:latin typeface="Cambria"/>
+                <a:ea typeface="Cambria"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="317 Conector recto"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="1050878" y="334370"/>
+            <a:ext cx="852805" cy="1056640"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Cuadro de texto 2"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="499720" y="6824"/>
+            <a:ext cx="891660" cy="400739"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="800">
+                <a:effectLst/>
+                <a:latin typeface="Cambria"/>
+                <a:ea typeface="Cambria"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Conducto eyaculador</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Cambria"/>
+              <a:ea typeface="Cambria"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4429125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2628899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="33 Imagen"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="23226" t="23165" r="20198" b="24514"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16440150" y="5238749"/>
+          <a:ext cx="4333875" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19150</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038873</xdr:colOff>
+          <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1666,7 +2122,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1674,20 +2130,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1700,15 +2142,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1048448</xdr:colOff>
+          <xdr:colOff>1047750</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866526</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1721,7 +2163,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1729,20 +2171,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1755,15 +2183,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>14362</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1776,7 +2204,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1784,20 +2212,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1812,13 +2226,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019724</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1831,7 +2245,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1839,20 +2253,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1865,15 +2265,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1014936</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>833014</xdr:colOff>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1886,7 +2286,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1894,20 +2294,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1920,15 +2306,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1941,7 +2327,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1949,20 +2335,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1975,15 +2347,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1996,7 +2368,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2004,20 +2376,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2353,105 +2711,117 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.1875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.4375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.4375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="69.875" style="16" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="F2" s="79" t="s">
+      <c r="C2" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="94"/>
+      <c r="F2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+      <c r="G2" s="87"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+      <c r="C3" s="95">
+        <v>8</v>
+      </c>
+      <c r="D3" s="96"/>
+      <c r="F3" s="88">
+        <v>42100</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
+      <c r="C4" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="96"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
+      <c r="C5" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="98"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="53" t="str">
+      <c r="F5" s="49" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="49"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2459,2660 +2829,2746 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="83" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="12"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.05" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="str">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
-        <v/>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27" t="str">
+        <v>IMG01</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="26" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="13" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
-      </c>
-      <c r="G10" s="14" t="str">
+        <v>CN_08_05_CO_IMG01_small</v>
+      </c>
+      <c r="G10" s="13" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H10" s="14" t="str">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H10" s="13" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="I10" s="14" t="str">
+        <v>CN_08_05_CO_IMG01_zoom</v>
+      </c>
+      <c r="I10" s="13" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J10" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27" t="str">
+        <v>IMG02</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="26" t="str">
         <f t="shared" ref="C11:C22" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v/>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
-      </c>
-      <c r="G11" s="14" t="str">
+        <v>CN_08_05_CO_IMG02_small</v>
+      </c>
+      <c r="G11" s="13" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H11" s="14" t="str">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="I11" s="14" t="str">
+        <v>CN_08_05_CO_IMG02_zoom</v>
+      </c>
+      <c r="I11" s="13" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J11" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="str">
         <f t="shared" ref="A12:A30" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="27" t="str">
+        <v>IMG03</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G12" s="14" t="str">
+        <v>CN_08_05_CO_IMG03_small</v>
+      </c>
+      <c r="G12" s="13" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H12" s="14" t="str">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H12" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I12" s="14" t="str">
+        <v>CN_08_05_CO_IMG03_zoom</v>
+      </c>
+      <c r="I12" s="13" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="27" t="str">
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G13" s="14" t="str">
+        <v>CN_08_05_CO_IMG04_small</v>
+      </c>
+      <c r="G13" s="13" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H13" s="14" t="str">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H13" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I13" s="14" t="str">
+        <v>CN_08_05_CO_IMG04_zoom</v>
+      </c>
+      <c r="I13" s="13" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J13" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="221.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="27" t="str">
+        <v>IMG05</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G14" s="14" t="str">
+        <v>CN_08_05_CO_IMG05_small</v>
+      </c>
+      <c r="G14" s="13" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H14" s="14" t="str">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H14" s="13" t="str">
+        <f>IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CN_08_05_CO_IMG05_zoom</v>
+      </c>
+      <c r="I14" s="13" t="str">
+        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J14" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>IMG06</v>
+      </c>
+      <c r="B15" s="82">
+        <v>67045540</v>
+      </c>
+      <c r="C15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_08_05_CO_IMG06_small</v>
+      </c>
+      <c r="G15" s="13" t="str">
+        <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H15" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I14" s="14" t="str">
-        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="str">
+        <v>CN_08_05_CO_IMG06_zoom</v>
+      </c>
+      <c r="I15" s="13" t="str">
+        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J15" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="27" t="str">
+        <v>IMG07</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G15" s="14" t="str">
-        <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H15" s="14" t="str">
+        <v>CN_08_05_CO_IMG07_small</v>
+      </c>
+      <c r="G16" s="13" t="str">
+        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H16" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I15" s="14" t="str">
-        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="str">
+        <v>CN_08_05_CO_IMG07_zoom</v>
+      </c>
+      <c r="I16" s="13" t="str">
+        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J16" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="27" t="str">
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="85">
+        <v>48311224</v>
+      </c>
+      <c r="C17" s="26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G16" s="14" t="str">
-        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H16" s="14" t="str">
+        <v>CN_08_05_CO_IMG08_small</v>
+      </c>
+      <c r="G17" s="13" t="str">
+        <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H17" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I16" s="14" t="str">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="str">
+        <v>CN_08_05_CO_IMG08_zoom</v>
+      </c>
+      <c r="I17" s="13" t="str">
+        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J17" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="27" t="str">
+        <v>IMG09</v>
+      </c>
+      <c r="B18" s="82">
+        <v>194846810</v>
+      </c>
+      <c r="C18" s="26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G17" s="14" t="str">
-        <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H17" s="14" t="str">
+        <v>CN_08_05_CO_IMG09_small</v>
+      </c>
+      <c r="G18" s="13" t="str">
+        <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H18" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I17" s="14" t="str">
-        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="str">
+        <v>CN_08_05_CO_IMG09_zoom</v>
+      </c>
+      <c r="I18" s="13" t="str">
+        <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J18" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="27" t="str">
+        <v>IMGFALSO</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="str">
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G18" s="14" t="str">
-        <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H18" s="14" t="str">
+        <v>CN_08_05_CO_IMGFALSO_small</v>
+      </c>
+      <c r="G19" s="13" t="str">
+        <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H19" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I18" s="14" t="str">
-        <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="str">
+        <v>CN_08_05_CO_IMGFALSO_zoom</v>
+      </c>
+      <c r="I19" s="13" t="str">
+        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J19" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="27" t="str">
+      <c r="B20" s="27"/>
+      <c r="C20" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="str">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19" s="14" t="str">
-        <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H19" s="14" t="str">
+      <c r="G20" s="13" t="str">
+        <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H20" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I19" s="14" t="str">
-        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="str">
+      <c r="I20" s="13" t="str">
+        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="str">
+      <c r="B21" s="28"/>
+      <c r="C21" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="str">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G20" s="14" t="str">
-        <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H20" s="14" t="str">
+      <c r="G21" s="13" t="str">
+        <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H21" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="14" t="str">
-        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="str">
+      <c r="I21" s="13" t="str">
+        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="27" t="str">
+      <c r="B22" s="29"/>
+      <c r="C22" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="str">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="14" t="str">
-        <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H21" s="14" t="str">
+      <c r="G22" s="13" t="str">
+        <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H22" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I21" s="14" t="str">
-        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="str">
+      <c r="I22" s="13" t="str">
+        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="str">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="14" t="str">
-        <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H22" s="14" t="str">
+      <c r="G23" s="13" t="str">
+        <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H23" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="14" t="str">
-        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="str">
+      <c r="I23" s="13" t="str">
+        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="str">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="14" t="str">
-        <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H23" s="14" t="str">
+      <c r="G24" s="13" t="str">
+        <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H24" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" s="14" t="str">
-        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="str">
+      <c r="I24" s="13" t="str">
+        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="str">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" s="14" t="str">
-        <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H24" s="14" t="str">
+      <c r="G25" s="13" t="str">
+        <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H25" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" s="14" t="str">
-        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="str">
+      <c r="I25" s="13" t="str">
+        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="str">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25" s="14" t="str">
-        <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H25" s="14" t="str">
+      <c r="G26" s="13" t="str">
+        <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H26" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I25" s="14" t="str">
-        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="str">
+      <c r="I26" s="13" t="str">
+        <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="str">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="14" t="str">
-        <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H26" s="14" t="str">
+      <c r="G27" s="13" t="str">
+        <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H27" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I26" s="14" t="str">
-        <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="str">
+      <c r="I27" s="13" t="str">
+        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="str">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="14" t="str">
-        <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H27" s="14" t="str">
+      <c r="G28" s="13" t="str">
+        <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H28" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I27" s="14" t="str">
-        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="str">
+      <c r="I28" s="13" t="str">
+        <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="str">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="14" t="str">
-        <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H28" s="14" t="str">
+      <c r="G29" s="13" t="str">
+        <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H29" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I28" s="14" t="str">
-        <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="str">
+      <c r="I29" s="13" t="str">
+        <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="str">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G29" s="14" t="str">
-        <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H29" s="14" t="str">
+      <c r="G30" s="13" t="str">
+        <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H30" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I29" s="14" t="str">
-        <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="str">
+      <c r="I30" s="13" t="str">
+        <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="14" t="str">
-        <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H30" s="14" t="str">
+      <c r="G31" s="13" t="str">
+        <f>IF(F31&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H31" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="14" t="str">
-        <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14" t="str">
+      <c r="I31" s="13" t="str">
+        <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" s="14" t="str">
-        <f>IF(F31&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H31" s="14" t="str">
+      <c r="G32" s="13" t="str">
+        <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H32" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="14" t="str">
-        <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14" t="str">
+      <c r="I32" s="13" t="str">
+        <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G32" s="14" t="str">
-        <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H32" s="14" t="str">
+      <c r="G33" s="13" t="str">
+        <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H33" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I32" s="14" t="str">
-        <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14" t="str">
+      <c r="I33" s="13" t="str">
+        <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G33" s="14" t="str">
-        <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H33" s="14" t="str">
+      <c r="G34" s="13" t="str">
+        <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H34" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I33" s="14" t="str">
-        <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14" t="str">
+      <c r="I34" s="13" t="str">
+        <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G34" s="14" t="str">
-        <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H34" s="14" t="str">
+      <c r="G35" s="13" t="str">
+        <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H35" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I34" s="14" t="str">
-        <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="str">
+      <c r="I35" s="13" t="str">
+        <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G35" s="14" t="str">
-        <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H35" s="14" t="str">
+      <c r="G36" s="13" t="str">
+        <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H36" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I35" s="14" t="str">
-        <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14" t="str">
+      <c r="I36" s="13" t="str">
+        <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="14" t="str">
-        <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H36" s="14" t="str">
+      <c r="G37" s="13" t="str">
+        <f>IF(F37&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H37" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I36" s="14" t="str">
-        <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14" t="str">
+      <c r="I37" s="13" t="str">
+        <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G37" s="14" t="str">
-        <f>IF(F37&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H37" s="14" t="str">
+      <c r="G38" s="13" t="str">
+        <f>IF(F38&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H38" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I37" s="14" t="str">
-        <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="str">
+      <c r="I38" s="13" t="str">
+        <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J38" s="22"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="14" t="str">
-        <f>IF(F38&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H38" s="14" t="str">
+      <c r="G39" s="13" t="str">
+        <f>IF(F39&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H39" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I38" s="14" t="str">
-        <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="str">
+      <c r="I39" s="13" t="str">
+        <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G39" s="14" t="str">
-        <f>IF(F39&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H39" s="14" t="str">
+      <c r="G40" s="13" t="str">
+        <f>IF(F40&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H40" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I39" s="14" t="str">
-        <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14" t="str">
+      <c r="I40" s="13" t="str">
+        <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G40" s="14" t="str">
-        <f>IF(F40&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H40" s="14" t="str">
+      <c r="G41" s="13" t="str">
+        <f>IF(F41&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H41" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I40" s="14" t="str">
-        <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14" t="str">
+      <c r="I41" s="13" t="str">
+        <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G41" s="14" t="str">
-        <f>IF(F41&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H41" s="14" t="str">
+      <c r="G42" s="13" t="str">
+        <f>IF(F42&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H42" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I41" s="14" t="str">
-        <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="str">
+      <c r="I42" s="13" t="str">
+        <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G42" s="14" t="str">
-        <f>IF(F42&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H42" s="14" t="str">
+      <c r="G43" s="13" t="str">
+        <f>IF(F43&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H43" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I42" s="14" t="str">
-        <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="15"/>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="str">
+      <c r="I43" s="13" t="str">
+        <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G43" s="14" t="str">
-        <f>IF(F43&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H43" s="14" t="str">
+      <c r="G44" s="13" t="str">
+        <f>IF(F44&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H44" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I43" s="14" t="str">
-        <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="13"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14" t="str">
+      <c r="I44" s="13" t="str">
+        <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G44" s="14" t="str">
-        <f>IF(F44&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H44" s="14" t="str">
+      <c r="G45" s="13" t="str">
+        <f>IF(F45&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H45" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I44" s="14" t="str">
-        <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="13"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="str">
+      <c r="I45" s="13" t="str">
+        <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="13"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G45" s="14" t="str">
-        <f>IF(F45&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H45" s="14" t="str">
+      <c r="G46" s="13" t="str">
+        <f>IF(F46&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H46" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I45" s="14" t="str">
-        <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="13"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14" t="str">
+      <c r="I46" s="13" t="str">
+        <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J46" s="13"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G46" s="14" t="str">
-        <f>IF(F46&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H46" s="14" t="str">
+      <c r="G47" s="13" t="str">
+        <f>IF(F47&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H47" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I46" s="14" t="str">
-        <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="15"/>
-    </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14" t="str">
+      <c r="I47" s="13" t="str">
+        <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G47" s="14" t="str">
-        <f>IF(F47&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H47" s="14" t="str">
+      <c r="G48" s="13" t="str">
+        <f>IF(F48&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H48" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I47" s="14" t="str">
-        <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="13"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14" t="str">
+      <c r="I48" s="13" t="str">
+        <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G48" s="14" t="str">
-        <f>IF(F48&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H48" s="14" t="str">
+      <c r="G49" s="13" t="str">
+        <f>IF(F49&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H49" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I48" s="14" t="str">
-        <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="13"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14" t="str">
+      <c r="I49" s="13" t="str">
+        <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G49" s="14" t="str">
-        <f>IF(F49&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H49" s="14" t="str">
+      <c r="G50" s="13" t="str">
+        <f>IF(F50&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H50" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I49" s="14" t="str">
-        <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="13"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14" t="str">
+      <c r="I50" s="13" t="str">
+        <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G50" s="14" t="str">
-        <f>IF(F50&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H50" s="14" t="str">
+      <c r="G51" s="13" t="str">
+        <f>IF(F51&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H51" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I50" s="14" t="str">
-        <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
-    </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14" t="str">
+      <c r="I51" s="13" t="str">
+        <f>IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G51" s="14" t="str">
-        <f>IF(F51&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H51" s="14" t="str">
+      <c r="G52" s="13" t="str">
+        <f>IF(F52&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H52" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I51" s="14" t="str">
-        <f>IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
-    </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="13"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14" t="str">
+      <c r="I52" s="13" t="str">
+        <f>IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G52" s="14" t="str">
-        <f>IF(F52&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H52" s="14" t="str">
+      <c r="G53" s="13" t="str">
+        <f>IF(F53&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H53" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I52" s="14" t="str">
-        <f>IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="15"/>
-    </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14" t="str">
+      <c r="I53" s="13" t="str">
+        <f>IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G53" s="14" t="str">
-        <f>IF(F53&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H53" s="14" t="str">
+      <c r="G54" s="13" t="str">
+        <f>IF(F54&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H54" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I53" s="14" t="str">
-        <f>IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="15"/>
-    </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14" t="str">
+      <c r="I54" s="13" t="str">
+        <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G54" s="14" t="str">
-        <f>IF(F54&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H54" s="14" t="str">
+      <c r="G55" s="13" t="str">
+        <f>IF(F55&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H55" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I54" s="14" t="str">
-        <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="15"/>
-    </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="13"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14" t="str">
+      <c r="I55" s="13" t="str">
+        <f>IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J55" s="13"/>
+      <c r="K55" s="14"/>
+    </row>
+    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G55" s="14" t="str">
-        <f>IF(F55&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H55" s="14" t="str">
+      <c r="G56" s="13" t="str">
+        <f>IF(F56&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H56" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I55" s="14" t="str">
-        <f>IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="15"/>
-    </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="13"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14" t="str">
+      <c r="I56" s="13" t="str">
+        <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="14"/>
+    </row>
+    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G56" s="14" t="str">
-        <f>IF(F56&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H56" s="14" t="str">
+      <c r="G57" s="13" t="str">
+        <f>IF(F57&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H57" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I56" s="14" t="str">
-        <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="15"/>
-    </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="13"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14" t="str">
+      <c r="I57" s="13" t="str">
+        <f>IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G57" s="14" t="str">
-        <f>IF(F57&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H57" s="14" t="str">
+      <c r="G58" s="13" t="str">
+        <f>IF(F58&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H58" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I57" s="14" t="str">
-        <f>IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="15"/>
-    </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="13"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14" t="str">
+      <c r="I58" s="13" t="str">
+        <f>IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="13"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G58" s="14" t="str">
-        <f>IF(F58&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H58" s="14" t="str">
+      <c r="G59" s="13" t="str">
+        <f>IF(F59&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H59" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I58" s="14" t="str">
-        <f>IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="15"/>
-    </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="13"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14" t="str">
+      <c r="I59" s="13" t="str">
+        <f>IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J59" s="13"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G59" s="14" t="str">
-        <f>IF(F59&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H59" s="14" t="str">
+      <c r="G60" s="13" t="str">
+        <f>IF(F60&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H60" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I59" s="14" t="str">
-        <f>IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="15"/>
-    </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="13"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14" t="str">
+      <c r="I60" s="13" t="str">
+        <f>IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G60" s="14" t="str">
-        <f>IF(F60&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H60" s="14" t="str">
+      <c r="G61" s="13" t="str">
+        <f>IF(F61&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H61" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I60" s="14" t="str">
-        <f>IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="15"/>
-    </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="13"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14" t="str">
+      <c r="I61" s="13" t="str">
+        <f>IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J61" s="13"/>
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G61" s="14" t="str">
-        <f>IF(F61&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H61" s="14" t="str">
+      <c r="G62" s="13" t="str">
+        <f>IF(F62&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H62" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I61" s="14" t="str">
-        <f>IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="15"/>
-    </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14" t="str">
+      <c r="I62" s="13" t="str">
+        <f>IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J62" s="13"/>
+      <c r="K62" s="14"/>
+    </row>
+    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G62" s="14" t="str">
-        <f>IF(F62&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H62" s="14" t="str">
+      <c r="G63" s="13" t="str">
+        <f>IF(F63&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H63" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I62" s="14" t="str">
-        <f>IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="15"/>
-    </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14" t="str">
+      <c r="I63" s="13" t="str">
+        <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J63" s="13"/>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G63" s="14" t="str">
-        <f>IF(F63&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H63" s="14" t="str">
+      <c r="G64" s="13" t="str">
+        <f>IF(F64&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H64" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I63" s="14" t="str">
-        <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="15"/>
-    </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14" t="str">
+      <c r="I64" s="13" t="str">
+        <f>IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J64" s="13"/>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G64" s="14" t="str">
-        <f>IF(F64&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H64" s="14" t="str">
+      <c r="G65" s="13" t="str">
+        <f>IF(F65&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H65" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I64" s="14" t="str">
-        <f>IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="15"/>
-    </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14" t="str">
+      <c r="I65" s="13" t="str">
+        <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G65" s="14" t="str">
-        <f>IF(F65&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H65" s="14" t="str">
+      <c r="G66" s="13" t="str">
+        <f>IF(F66&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H66" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I65" s="14" t="str">
-        <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="15"/>
-    </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14" t="str">
+      <c r="I66" s="13" t="str">
+        <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G66" s="14" t="str">
-        <f>IF(F66&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H66" s="14" t="str">
+      <c r="G67" s="13" t="str">
+        <f>IF(F67&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H67" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I66" s="14" t="str">
-        <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="15"/>
-    </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14" t="str">
+      <c r="I67" s="13" t="str">
+        <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J67" s="13"/>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G67" s="14" t="str">
-        <f>IF(F67&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H67" s="14" t="str">
+      <c r="G68" s="13" t="str">
+        <f>IF(F68&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H68" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I67" s="14" t="str">
-        <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="15"/>
-    </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14" t="str">
+      <c r="I68" s="13" t="str">
+        <f>IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J68" s="13"/>
+      <c r="K68" s="14"/>
+    </row>
+    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G68" s="14" t="str">
-        <f>IF(F68&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H68" s="14" t="str">
+      <c r="G69" s="13" t="str">
+        <f>IF(F69&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H69" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I68" s="14" t="str">
-        <f>IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="15"/>
-    </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14" t="str">
+      <c r="I69" s="13" t="str">
+        <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J69" s="13"/>
+      <c r="K69" s="14"/>
+    </row>
+    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G69" s="14" t="str">
-        <f>IF(F69&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H69" s="14" t="str">
+      <c r="G70" s="13" t="str">
+        <f>IF(F70&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H70" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I69" s="14" t="str">
-        <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="15"/>
-    </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14" t="str">
+      <c r="I70" s="13" t="str">
+        <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J70" s="13"/>
+      <c r="K70" s="14"/>
+    </row>
+    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G70" s="14" t="str">
-        <f>IF(F70&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H70" s="14" t="str">
+      <c r="G71" s="13" t="str">
+        <f>IF(F71&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H71" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I70" s="14" t="str">
-        <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="15"/>
-    </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14" t="str">
+      <c r="I71" s="13" t="str">
+        <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J71" s="13"/>
+      <c r="K71" s="14"/>
+    </row>
+    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G71" s="14" t="str">
-        <f>IF(F71&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H71" s="14" t="str">
+      <c r="G72" s="13" t="str">
+        <f>IF(F72&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H72" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I71" s="14" t="str">
-        <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J71" s="14"/>
-      <c r="K71" s="15"/>
-    </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14" t="str">
+      <c r="I72" s="13" t="str">
+        <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J72" s="13"/>
+      <c r="K72" s="14"/>
+    </row>
+    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G72" s="14" t="str">
-        <f>IF(F72&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H72" s="14" t="str">
+      <c r="G73" s="13" t="str">
+        <f>IF(F73&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H73" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I72" s="14" t="str">
-        <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="15"/>
-    </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14" t="str">
+      <c r="I73" s="13" t="str">
+        <f>IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J73" s="13"/>
+      <c r="K73" s="14"/>
+    </row>
+    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G73" s="14" t="str">
-        <f>IF(F73&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H73" s="14" t="str">
+      <c r="G74" s="13" t="str">
+        <f>IF(F74&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H74" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I73" s="14" t="str">
-        <f>IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J73" s="14"/>
-      <c r="K73" s="15"/>
-    </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G74" s="14" t="str">
-        <f>IF(F74&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H74" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I74" s="14" t="str">
+      <c r="I74" s="13" t="str">
         <f>IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J74" s="14"/>
-      <c r="K74" s="15"/>
-    </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14" t="str">
+      <c r="J74" s="13"/>
+      <c r="K74" s="14"/>
+    </row>
+    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13" t="str">
         <f t="shared" ref="F75:F108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
-      <c r="G75" s="14" t="str">
+      <c r="G75" s="13" t="str">
         <f>IF(F75&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H75" s="14" t="str">
+      <c r="H75" s="13" t="str">
         <f t="shared" ref="H75:H108" si="5">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I75" s="14" t="str">
+      <c r="I75" s="13" t="str">
         <f>IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="15"/>
-    </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14" t="str">
+      <c r="J75" s="13"/>
+      <c r="K75" s="14"/>
+    </row>
+    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G76" s="14" t="str">
+      <c r="G76" s="13" t="str">
         <f>IF(F76&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H76" s="14" t="str">
+      <c r="H76" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I76" s="14" t="str">
+      <c r="I76" s="13" t="str">
         <f>IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J76" s="14"/>
-      <c r="K76" s="15"/>
-    </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14" t="str">
+      <c r="J76" s="13"/>
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G77" s="14" t="str">
+      <c r="G77" s="13" t="str">
         <f>IF(F77&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H77" s="14" t="str">
+      <c r="H77" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I77" s="14" t="str">
+      <c r="I77" s="13" t="str">
         <f>IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="15"/>
-    </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14" t="str">
+      <c r="J77" s="13"/>
+      <c r="K77" s="14"/>
+    </row>
+    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G78" s="14" t="str">
+      <c r="G78" s="13" t="str">
         <f>IF(F78&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H78" s="14" t="str">
+      <c r="H78" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I78" s="14" t="str">
+      <c r="I78" s="13" t="str">
         <f>IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J78" s="14"/>
-      <c r="K78" s="15"/>
-    </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14" t="str">
+      <c r="J78" s="13"/>
+      <c r="K78" s="14"/>
+    </row>
+    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G79" s="14" t="str">
+      <c r="G79" s="13" t="str">
         <f>IF(F79&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H79" s="14" t="str">
+      <c r="H79" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I79" s="14" t="str">
+      <c r="I79" s="13" t="str">
         <f>IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="15"/>
-    </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14" t="str">
+      <c r="J79" s="13"/>
+      <c r="K79" s="14"/>
+    </row>
+    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G80" s="14" t="str">
+      <c r="G80" s="13" t="str">
         <f>IF(F80&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H80" s="14" t="str">
+      <c r="H80" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I80" s="14" t="str">
+      <c r="I80" s="13" t="str">
         <f>IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J80" s="14"/>
-      <c r="K80" s="15"/>
-    </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14" t="str">
+      <c r="J80" s="13"/>
+      <c r="K80" s="14"/>
+    </row>
+    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G81" s="14" t="str">
+      <c r="G81" s="13" t="str">
         <f>IF(F81&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H81" s="14" t="str">
+      <c r="H81" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I81" s="14" t="str">
+      <c r="I81" s="13" t="str">
         <f>IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J81" s="14"/>
-      <c r="K81" s="15"/>
-    </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14" t="str">
+      <c r="J81" s="13"/>
+      <c r="K81" s="14"/>
+    </row>
+    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G82" s="14" t="str">
+      <c r="G82" s="13" t="str">
         <f>IF(F82&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H82" s="14" t="str">
+      <c r="H82" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I82" s="14" t="str">
+      <c r="I82" s="13" t="str">
         <f>IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J82" s="14"/>
-      <c r="K82" s="15"/>
-    </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14" t="str">
+      <c r="J82" s="13"/>
+      <c r="K82" s="14"/>
+    </row>
+    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G83" s="14" t="str">
+      <c r="G83" s="13" t="str">
         <f>IF(F83&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H83" s="14" t="str">
+      <c r="H83" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I83" s="14" t="str">
+      <c r="I83" s="13" t="str">
         <f>IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J83" s="14"/>
-      <c r="K83" s="15"/>
-    </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14" t="str">
+      <c r="J83" s="13"/>
+      <c r="K83" s="14"/>
+    </row>
+    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G84" s="14" t="str">
+      <c r="G84" s="13" t="str">
         <f>IF(F84&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H84" s="14" t="str">
+      <c r="H84" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I84" s="14" t="str">
+      <c r="I84" s="13" t="str">
         <f>IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J84" s="14"/>
-      <c r="K84" s="15"/>
-    </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14" t="str">
+      <c r="J84" s="13"/>
+      <c r="K84" s="14"/>
+    </row>
+    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G85" s="14" t="str">
+      <c r="G85" s="13" t="str">
         <f>IF(F85&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H85" s="14" t="str">
+      <c r="H85" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I85" s="14" t="str">
+      <c r="I85" s="13" t="str">
         <f>IF(OR(B85&lt;&gt;"",J85&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J85" s="14"/>
-      <c r="K85" s="15"/>
-    </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14" t="str">
+      <c r="J85" s="13"/>
+      <c r="K85" s="14"/>
+    </row>
+    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G86" s="14" t="str">
+      <c r="G86" s="13" t="str">
         <f>IF(F86&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H86" s="14" t="str">
+      <c r="H86" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I86" s="14" t="str">
+      <c r="I86" s="13" t="str">
         <f>IF(OR(B86&lt;&gt;"",J86&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J86" s="14"/>
-      <c r="K86" s="15"/>
-    </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14" t="str">
+      <c r="J86" s="13"/>
+      <c r="K86" s="14"/>
+    </row>
+    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G87" s="14" t="str">
+      <c r="G87" s="13" t="str">
         <f>IF(F87&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H87" s="14" t="str">
+      <c r="H87" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I87" s="14" t="str">
+      <c r="I87" s="13" t="str">
         <f>IF(OR(B87&lt;&gt;"",J87&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J87" s="14"/>
-      <c r="K87" s="15"/>
-    </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14" t="str">
+      <c r="J87" s="13"/>
+      <c r="K87" s="14"/>
+    </row>
+    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G88" s="14" t="str">
+      <c r="G88" s="13" t="str">
         <f>IF(F88&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H88" s="14" t="str">
+      <c r="H88" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I88" s="14" t="str">
+      <c r="I88" s="13" t="str">
         <f>IF(OR(B88&lt;&gt;"",J88&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J88" s="14"/>
-      <c r="K88" s="15"/>
-    </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14" t="str">
+      <c r="J88" s="13"/>
+      <c r="K88" s="14"/>
+    </row>
+    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G89" s="14" t="str">
+      <c r="G89" s="13" t="str">
         <f>IF(F89&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H89" s="14" t="str">
+      <c r="H89" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I89" s="14" t="str">
+      <c r="I89" s="13" t="str">
         <f>IF(OR(B89&lt;&gt;"",J89&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J89" s="14"/>
-      <c r="K89" s="15"/>
-    </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14" t="str">
+      <c r="J89" s="13"/>
+      <c r="K89" s="14"/>
+    </row>
+    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G90" s="14" t="str">
+      <c r="G90" s="13" t="str">
         <f>IF(F90&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H90" s="14" t="str">
+      <c r="H90" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I90" s="14" t="str">
+      <c r="I90" s="13" t="str">
         <f>IF(OR(B90&lt;&gt;"",J90&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J90" s="14"/>
-      <c r="K90" s="15"/>
-    </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14" t="str">
+      <c r="J90" s="13"/>
+      <c r="K90" s="14"/>
+    </row>
+    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G91" s="14" t="str">
+      <c r="G91" s="13" t="str">
         <f>IF(F91&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H91" s="14" t="str">
+      <c r="H91" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I91" s="14" t="str">
+      <c r="I91" s="13" t="str">
         <f>IF(OR(B91&lt;&gt;"",J91&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J91" s="14"/>
-      <c r="K91" s="15"/>
-    </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14" t="str">
+      <c r="J91" s="13"/>
+      <c r="K91" s="14"/>
+    </row>
+    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G92" s="14" t="str">
+      <c r="G92" s="13" t="str">
         <f>IF(F92&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H92" s="14" t="str">
+      <c r="H92" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I92" s="14" t="str">
+      <c r="I92" s="13" t="str">
         <f>IF(OR(B92&lt;&gt;"",J92&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J92" s="14"/>
-      <c r="K92" s="15"/>
-    </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14" t="str">
+      <c r="J92" s="13"/>
+      <c r="K92" s="14"/>
+    </row>
+    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G93" s="14" t="str">
+      <c r="G93" s="13" t="str">
         <f>IF(F93&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H93" s="14" t="str">
+      <c r="H93" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I93" s="14" t="str">
+      <c r="I93" s="13" t="str">
         <f>IF(OR(B93&lt;&gt;"",J93&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J93" s="14"/>
-      <c r="K93" s="15"/>
-    </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14" t="str">
+      <c r="J93" s="13"/>
+      <c r="K93" s="14"/>
+    </row>
+    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G94" s="14" t="str">
+      <c r="G94" s="13" t="str">
         <f>IF(F94&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H94" s="14" t="str">
+      <c r="H94" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I94" s="14" t="str">
+      <c r="I94" s="13" t="str">
         <f>IF(OR(B94&lt;&gt;"",J94&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J94" s="14"/>
-      <c r="K94" s="15"/>
-    </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14" t="str">
+      <c r="J94" s="13"/>
+      <c r="K94" s="14"/>
+    </row>
+    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G95" s="14" t="str">
+      <c r="G95" s="13" t="str">
         <f>IF(F95&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H95" s="14" t="str">
+      <c r="H95" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I95" s="14" t="str">
+      <c r="I95" s="13" t="str">
         <f>IF(OR(B95&lt;&gt;"",J95&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J95" s="14"/>
-      <c r="K95" s="15"/>
-    </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14" t="str">
+      <c r="J95" s="13"/>
+      <c r="K95" s="14"/>
+    </row>
+    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G96" s="14" t="str">
+      <c r="G96" s="13" t="str">
         <f>IF(F96&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H96" s="14" t="str">
+      <c r="H96" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I96" s="14" t="str">
+      <c r="I96" s="13" t="str">
         <f>IF(OR(B96&lt;&gt;"",J96&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J96" s="14"/>
-      <c r="K96" s="15"/>
-    </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14" t="str">
+      <c r="J96" s="13"/>
+      <c r="K96" s="14"/>
+    </row>
+    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G97" s="14" t="str">
+      <c r="G97" s="13" t="str">
         <f>IF(F97&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H97" s="14" t="str">
+      <c r="H97" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I97" s="14" t="str">
+      <c r="I97" s="13" t="str">
         <f>IF(OR(B97&lt;&gt;"",J97&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J97" s="14"/>
-      <c r="K97" s="15"/>
-    </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14" t="str">
+      <c r="J97" s="13"/>
+      <c r="K97" s="14"/>
+    </row>
+    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G98" s="14" t="str">
+      <c r="G98" s="13" t="str">
         <f>IF(F98&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H98" s="14" t="str">
+      <c r="H98" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I98" s="14" t="str">
+      <c r="I98" s="13" t="str">
         <f>IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J98" s="14"/>
-      <c r="K98" s="15"/>
-    </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14" t="str">
+      <c r="J98" s="13"/>
+      <c r="K98" s="14"/>
+    </row>
+    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G99" s="14" t="str">
+      <c r="G99" s="13" t="str">
         <f>IF(F99&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H99" s="14" t="str">
+      <c r="H99" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I99" s="14" t="str">
+      <c r="I99" s="13" t="str">
         <f>IF(OR(B99&lt;&gt;"",J99&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J99" s="14"/>
-      <c r="K99" s="15"/>
-    </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14" t="str">
+      <c r="J99" s="13"/>
+      <c r="K99" s="14"/>
+    </row>
+    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G100" s="14" t="str">
+      <c r="G100" s="13" t="str">
         <f>IF(F100&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H100" s="14" t="str">
+      <c r="H100" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I100" s="14" t="str">
+      <c r="I100" s="13" t="str">
         <f>IF(OR(B100&lt;&gt;"",J100&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J100" s="14"/>
-      <c r="K100" s="15"/>
-    </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14" t="str">
+      <c r="J100" s="13"/>
+      <c r="K100" s="14"/>
+    </row>
+    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G101" s="14" t="str">
+      <c r="G101" s="13" t="str">
         <f>IF(F101&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H101" s="14" t="str">
+      <c r="H101" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I101" s="14" t="str">
+      <c r="I101" s="13" t="str">
         <f>IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J101" s="14"/>
-      <c r="K101" s="15"/>
-    </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14" t="str">
+      <c r="J101" s="13"/>
+      <c r="K101" s="14"/>
+    </row>
+    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G102" s="14" t="str">
+      <c r="G102" s="13" t="str">
         <f>IF(F102&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H102" s="14" t="str">
+      <c r="H102" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I102" s="14" t="str">
+      <c r="I102" s="13" t="str">
         <f>IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J102" s="14"/>
-      <c r="K102" s="15"/>
-    </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14" t="str">
+      <c r="J102" s="13"/>
+      <c r="K102" s="14"/>
+    </row>
+    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G103" s="14" t="str">
+      <c r="G103" s="13" t="str">
         <f>IF(F103&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H103" s="14" t="str">
+      <c r="H103" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I103" s="14" t="str">
+      <c r="I103" s="13" t="str">
         <f>IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="15"/>
-    </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14" t="str">
+      <c r="J103" s="13"/>
+      <c r="K103" s="14"/>
+    </row>
+    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G104" s="14" t="str">
+      <c r="G104" s="13" t="str">
         <f>IF(F104&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H104" s="14" t="str">
+      <c r="H104" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I104" s="14" t="str">
+      <c r="I104" s="13" t="str">
         <f>IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J104" s="14"/>
-      <c r="K104" s="15"/>
-    </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14" t="str">
+      <c r="J104" s="13"/>
+      <c r="K104" s="14"/>
+    </row>
+    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G105" s="14" t="str">
+      <c r="G105" s="13" t="str">
         <f>IF(F105&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H105" s="14" t="str">
+      <c r="H105" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I105" s="14" t="str">
+      <c r="I105" s="13" t="str">
         <f>IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J105" s="14"/>
-      <c r="K105" s="15"/>
-    </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14" t="str">
+      <c r="J105" s="13"/>
+      <c r="K105" s="14"/>
+    </row>
+    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G106" s="14" t="str">
+      <c r="G106" s="13" t="str">
         <f>IF(F106&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H106" s="14" t="str">
+      <c r="H106" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I106" s="14" t="str">
+      <c r="I106" s="13" t="str">
         <f>IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="15"/>
-    </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14" t="str">
+      <c r="J106" s="13"/>
+      <c r="K106" s="14"/>
+    </row>
+    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G107" s="14" t="str">
+      <c r="G107" s="13" t="str">
         <f>IF(F107&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H107" s="14" t="str">
+      <c r="H107" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I107" s="14" t="str">
+      <c r="I107" s="13" t="str">
         <f>IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J107" s="14"/>
-      <c r="K107" s="15"/>
-    </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14" t="str">
+      <c r="J107" s="13"/>
+      <c r="K107" s="14"/>
+    </row>
+    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G108" s="14" t="str">
+      <c r="G108" s="13" t="str">
         <f>IF(F108&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H108" s="14" t="str">
+      <c r="H108" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I108" s="14" t="str">
+      <c r="I108" s="13" t="str">
         <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="15"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5161,8 +5617,14 @@
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" display="http://www.shutterstock.com/pic-67045540/stock-photo-happy-family-mother-father-and-their-baby-under-the-blanket-on-the-bed-at-home-focus-on-the-man.html?src=4AHnvF4xZw3UXWhSuwOI0A-1-2"/>
+    <hyperlink ref="B17" r:id="rId2" display="http://www.shutterstock.com/pic-48311224/stock-photo-schematic-sketch-of-artificial-insemination.html?src=iBm9vJ9qGZL3v1C3QUl_GQ-1-81"/>
+    <hyperlink ref="B18" r:id="rId3" display="http://www.shutterstock.com/pic-194846810/stock-photo-in-vitro-fertilisation-ivf-macro-concept.html?src=SnhcE_oOLVBQgvvEyej1FA-1-0"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5180,541 +5642,541 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11" style="38"/>
-    <col min="3" max="3" width="13.8125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="11.3125" style="38" customWidth="1"/>
-    <col min="5" max="7" width="11" style="38"/>
-    <col min="8" max="11" width="11" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="38"/>
+    <col min="1" max="1" width="72.25" style="34" customWidth="1"/>
+    <col min="2" max="2" width="11" style="34"/>
+    <col min="3" max="3" width="13.875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="34" customWidth="1"/>
+    <col min="5" max="7" width="11" style="34"/>
+    <col min="8" max="11" width="11" style="34" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="97" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
-      <c r="A3" s="49" t="s">
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="103" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="48"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="44"/>
+      <c r="H3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="H4" s="38" t="s">
+      <c r="F4" s="44"/>
+      <c r="H4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="34">
         <v>1</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="106" t="str">
+      <c r="D5" s="113" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="38" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="44"/>
+      <c r="H5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="34">
         <v>2</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="34">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="H6" s="38" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="H6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="34">
         <v>3</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="78" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="99" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
-      <c r="H7" s="38" t="s">
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
+      <c r="H7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="34">
         <v>4</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="34">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="I8" s="38" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="I8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="34">
         <v>5</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="I9" s="38" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="I9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="34">
         <v>6</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="34">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="I10" s="38" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="I10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="34">
         <v>7</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="34">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="I11" s="38" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="34">
         <v>8</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="34">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I12" s="38" t="s">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="34">
         <v>9</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="34">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A13" s="94" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="I13" s="38" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="I13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="34">
         <v>10</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="34">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="49"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="I14" s="38" t="s">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="45"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="I14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="34">
         <v>11</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="34">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="97" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="J15" s="38">
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+      <c r="J15" s="34">
         <v>12</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="34">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="34">
         <v>13</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="34">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="44" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="100" t="str">
+      <c r="D17" s="107" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="J17" s="38">
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="J17" s="34">
         <v>14</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="34">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="78" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="92" t="str">
+      <c r="D18" s="99" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="J18" s="38">
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="J18" s="34">
         <v>15</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="34">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="H19" s="38">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="H19" s="34">
         <v>3</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="34">
         <v>16</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="34">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="50" t="s">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="H20" s="38">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="H20" s="34">
         <v>4</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="34">
         <v>5</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="34">
         <v>4</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="34">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H21" s="38" t="str">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="34" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="38" t="str">
+      <c r="I21" s="34" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="38" t="str">
+      <c r="J21" s="34" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="34">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K22" s="38">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="34">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K23" s="38">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="34">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K24" s="38">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="34">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K25" s="38">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="34">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K26" s="38">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="34">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K27" s="38">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="34">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K28" s="38">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="34">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K29" s="38">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="34">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K30" s="38">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="34">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K31" s="38">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="34">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K32" s="38">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="34">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K33" s="38">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="34">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K34" s="38">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="34">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K35" s="38">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="34">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K36" s="38">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="34">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K37" s="38">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="34">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K38" s="38">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="34">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K39" s="38">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="34">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K40" s="38">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="34">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K41" s="38">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="34">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K42" s="38">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="34">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K43" s="38">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="34">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K44" s="38">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.5">
-      <c r="K45" s="38" t="str">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="34" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -5747,13 +6209,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019724</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5767,15 +6229,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1014936</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>833014</xdr:colOff>
+                    <xdr:colOff>828675</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5789,15 +6251,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5811,15 +6273,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5833,15 +6295,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19150</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038873</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5855,15 +6317,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1048448</xdr:colOff>
+                    <xdr:colOff>1047750</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866526</xdr:colOff>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5877,15 +6339,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>14362</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5907,564 +6369,564 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="38" customWidth="1"/>
-    <col min="2" max="2" width="22.1875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="17.3125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="10.8125" style="38"/>
-    <col min="5" max="5" width="11.6875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="12.6875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="11" style="38" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="38" customWidth="1"/>
-    <col min="9" max="9" width="22.1875" style="38" customWidth="1"/>
-    <col min="10" max="10" width="20.6875" style="38" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="38" customWidth="1"/>
-    <col min="12" max="16384" width="10.8125" style="38"/>
+    <col min="1" max="1" width="21" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="34" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="34"/>
+    <col min="5" max="5" width="11.75" style="34" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11" style="34" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="34" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="34" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="34" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="34" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="57" t="s">
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="53" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="60" t="s">
+      <c r="I4" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D5" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E5" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F5" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="58"/>
+    </row>
+    <row r="6" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="56"/>
+    </row>
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="59"/>
+      <c r="K13" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="60" t="s">
+      <c r="I16" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="60"/>
+      <c r="K16" s="62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D17" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" s="60" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="59" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
-      <c r="A7" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="60"/>
-    </row>
-    <row r="9" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="60"/>
-    </row>
-    <row r="10" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" s="60"/>
-    </row>
-    <row r="11" spans="1:11" s="59" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
-      <c r="A11" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" s="60"/>
-    </row>
-    <row r="12" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J12" s="60"/>
-    </row>
-    <row r="13" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
-      <c r="A13" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A14" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="63"/>
-    </row>
-    <row r="15" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
-      <c r="A15" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="95" x14ac:dyDescent="0.5">
-      <c r="A16" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="65" t="s">
+      <c r="E17" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="56"/>
+      <c r="K17" s="64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.5">
-      <c r="A17" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A20" s="69" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A21" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="71" t="s">
+      <c r="C21" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A22" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="110" t="s">
+      <c r="C22" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A23" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="110" t="s">
+      <c r="C23" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+    </row>
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-    </row>
-    <row r="24" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
-      <c r="A24" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="74" t="s">
+      <c r="C24" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A25" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="74" t="s">
+      <c r="C25" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-    </row>
-    <row r="26" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
-      <c r="A26" s="73" t="s">
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+    </row>
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="8">
